--- a/orders.xlsx
+++ b/orders.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,11 +492,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Irish Coffee</t>
+          <t>Orange Juice</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45264.70172729166</v>
+        <v>45264.81871657407</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -507,18 +507,16 @@
         <v>250</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Stephan Nef</t>
+          <t>Cliona Fenelon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -527,11 +525,11 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45264.69305065972</v>
+        <v>45264.77667333333</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>consumed</t>
+          <t>prepared</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -541,19 +539,17 @@
         <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2458476426257353</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" s="2" t="n">
-        <v>45264.70247222222</v>
+        <v>45264.81871694444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cliona Fenelon</t>
+          <t>Andreas Nef</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -562,7 +558,7 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45264.69301070602</v>
+        <v>45264.77498045139</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -576,19 +572,17 @@
         <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07459033613445379</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" s="2" t="n">
-        <v>45264.70172765046</v>
+        <v>45264.81871694444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Andreas Nef</t>
+          <t>Stephan Nef</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -597,7 +591,7 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45264.69200388889</v>
+        <v>45264.77382175926</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -611,19 +605,17 @@
         <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09489612099215686</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>0.1710872649898038</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" s="2" t="n">
-        <v>45264.70172765046</v>
+        <v>45264.81871694444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cliona Fenelon</t>
+          <t>Ursula von der Leyen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -632,7 +624,7 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45264.68271349537</v>
+        <v>45264.77314642361</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -646,28 +638,26 @@
         <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1460425712022409</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" s="2" t="n">
-        <v>45264.70172765046</v>
+        <v>45264.81871694444</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Andreas Nef</t>
+          <t>Cliona Fenelon</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Irish Coffee</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45264.67630106481</v>
+        <v>45264.77271070602</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -675,25 +665,23 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03366454786617647</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
+        <v>0.05959973781893557</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" s="2" t="n">
-        <v>45264.69051939815</v>
+        <v>45264.81871694444</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Stephan Nef</t>
+          <t>Andreas Nef</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -702,7 +690,7 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45264.67617190972</v>
+        <v>45264.77184732639</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -716,13 +704,11 @@
         <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1903749384620098</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" s="2" t="n">
-        <v>45264.67750532407</v>
+        <v>45264.81871694444</v>
       </c>
     </row>
     <row r="9">
@@ -737,7 +723,7 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45264.67499246528</v>
+        <v>45264.77097368056</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -751,28 +737,26 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.126155617177451</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
+        <v>0.2355480493035293</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" s="2" t="n">
-        <v>45264.67683459491</v>
+        <v>45264.81871694444</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Andreas Nef</t>
+          <t>Stephan Nef</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Irish Coffee</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45264.66921126157</v>
+        <v>45264.76572501157</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,53 +764,673 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02175551470588235</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
+        <v>0.1390332336956863</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" s="2" t="n">
-        <v>45264.67683459491</v>
+        <v>45264.77667373842</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Cliona Fenelon</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Irish Coffee</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45264.76508097223</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>250</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" s="2" t="n">
+        <v>45264.77667373842</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Stephan Nef</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Irish Coffee</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Irish Coffee</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45264.76504222222</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>250</v>
+      </c>
+      <c r="F12" t="n">
+        <v>18</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2034940180094117</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" s="2" t="n">
+        <v>45264.77667373842</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ursula von der Leyen</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Espresso</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45264.76417959491</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" s="2" t="n">
+        <v>45264.77667373842</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Andreas Nef</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Irish Coffee</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45264.76404121528</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>250</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" s="2" t="n">
+        <v>45264.77667373842</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Cliona Fenelon</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Irish Coffee</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45264.76187663194</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>250</v>
+      </c>
+      <c r="F15" t="n">
+        <v>18</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.007286602883361359</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>45264.77667373842</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Andreas Nef</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Irish Coffee</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45264.76163957176</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>250</v>
+      </c>
+      <c r="F16" t="n">
+        <v>18</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>45264.77667373842</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ursula von der Leyen</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mineral Water</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45264.76113067129</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>250</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>45264.77667373842</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Stephan Nef</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Irish Coffee</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45264.75722543982</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>250</v>
+      </c>
+      <c r="F18" t="n">
+        <v>18</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3525544328865196</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>45264.76417994213</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ursula von der Leyen</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Orange Juice</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45264.75306061342</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>250</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>45264.76075346065</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Stephan Nef</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Irish Coffee</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45264.70172729166</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>250</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2913311839186274</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>45264.75518678241</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Stephan Nef</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Irish Coffee</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45264.69305065972</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>250</v>
+      </c>
+      <c r="F21" t="n">
+        <v>18</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2458476426257353</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>45264.70247222222</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cliona Fenelon</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Irish Coffee</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45264.69301070602</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>250</v>
+      </c>
+      <c r="F22" t="n">
+        <v>18</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.07459033613445379</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>45264.70172765046</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Andreas Nef</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Irish Coffee</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45264.69200388889</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>250</v>
+      </c>
+      <c r="F23" t="n">
+        <v>18</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.09489612099215686</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>45264.70172765046</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cliona Fenelon</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Irish Coffee</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45264.68271349537</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>250</v>
+      </c>
+      <c r="F24" t="n">
+        <v>18</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1460425712022409</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>45264.70172765046</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Andreas Nef</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Beer</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45264.67630106481</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>300</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03366454786617647</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>45264.69051939815</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Stephan Nef</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Irish Coffee</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45264.67617190972</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>250</v>
+      </c>
+      <c r="F26" t="n">
+        <v>18</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1903749384620098</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>45264.67750532407</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Stephan Nef</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Irish Coffee</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45264.67499246528</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>250</v>
+      </c>
+      <c r="F27" t="n">
+        <v>18</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.126155617177451</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>45264.67683459491</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Andreas Nef</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beer</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45264.66921126157</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>300</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.02175551470588235</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>45264.67683459491</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Stephan Nef</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Irish Coffee</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
         <v>45264.66915140046</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>consumed</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>250</v>
-      </c>
-      <c r="F11" t="n">
-        <v>18</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>consumed</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>250</v>
+      </c>
+      <c r="F29" t="n">
+        <v>18</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.06446078431372548</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="n">
         <v>45264.67048989583</v>
       </c>
     </row>
